--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598491.8517360066</v>
+        <v>465421.1768450613</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131408.985508541</v>
+        <v>1132823.573406694</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23404002.81660417</v>
+        <v>23408634.78173636</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4941767.129474279</v>
+        <v>4942378.335368611</v>
       </c>
     </row>
     <row r="11">
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="H11" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.75359370674563</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>13.18456318129113</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.96885011499901</v>
+        <v>3.22458912873703</v>
       </c>
       <c r="J12" t="n">
-        <v>14.96885011499901</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.96885011499901</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
     </row>
     <row r="13">
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G14" t="n">
-        <v>25.94896564892557</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>25.94896564892557</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.85584894357364</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.94896564892557</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1730,25 +1730,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R15" t="n">
-        <v>25.94896564892557</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="T15" t="n">
-        <v>25.94896564892557</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3268443655650658</v>
+        <v>3.224589128737035</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,58 +1861,58 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="I17" t="n">
+      <c r="Y17" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="J17" t="n">
-        <v>45.35754004913036</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>39.95092127527401</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,55 +1937,55 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39.95092127527401</v>
+        <v>17.42191669726541</v>
       </c>
       <c r="H18" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>22.52900457800858</v>
+      </c>
+      <c r="R18" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="J18" t="n">
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,59 +2080,59 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="R20" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="E20" t="n">
+      <c r="S20" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>39.95092127527401</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,64 +2171,64 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>22.52900457800858</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>45.35754004913036</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="X21" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>17.42191669726542</v>
       </c>
     </row>
     <row r="22">
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>75.70608231735569</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T23" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V23" t="n">
-        <v>75.70608231735569</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V24" t="n">
-        <v>66.6819173051269</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W24" t="n">
-        <v>75.70608231735569</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="X24" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.70608231735569</v>
+        <v>66.68191730512689</v>
       </c>
     </row>
     <row r="25">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2678,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>44.15291272711832</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="Y27" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V30" t="n">
-        <v>66.6819173051269</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
     </row>
     <row r="31">
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>66.68191730512689</v>
       </c>
       <c r="H32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>66.6819173051269</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>75.70608231735571</v>
+        <v>44.15291272711832</v>
       </c>
       <c r="H33" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="V33" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.73723220235669</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>60.73723220235669</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.73723220235669</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.92832359838124</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>53.49735412383575</v>
+        <v>46.46721571115037</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>18.39931902037265</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3389,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R36" t="n">
-        <v>60.73723220235669</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.73723220235669</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>60.73723220235669</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>30.96834954582719</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>40.92832359838123</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.75711666843013</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="U38" t="n">
-        <v>49.75711666843013</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="V38" t="n">
-        <v>49.75711666843013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>43.82606836155323</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="E39" t="n">
-        <v>43.82606836155323</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3626,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R39" t="n">
-        <v>49.75711666843013</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>49.75711666843013</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>49.75711666843013</v>
+        <v>18.39931902037265</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.73099602985288</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>30.34854226822534</v>
+        <v>26.73099602985285</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.2019914518443</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4.201991451844253</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3863,16 +3863,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>26.73099602985288</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>26.73099602985285</v>
       </c>
     </row>
     <row r="45">
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="H45" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.2019914518443</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>26.73099602985285</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>30.34854226822534</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="C11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="D11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="E11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="F11" t="n">
-        <v>44.75534983878492</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G11" t="n">
-        <v>44.75534983878492</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H11" t="n">
-        <v>31.43760925162216</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I11" t="n">
-        <v>16.31755863041104</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J11" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K11" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304894</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M11" t="n">
-        <v>30.83583123689796</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N11" t="n">
-        <v>31.10175243980922</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O11" t="n">
-        <v>45.92091405365824</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999604</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.75534983878492</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R11" t="n">
-        <v>44.75534983878492</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S11" t="n">
-        <v>44.75534983878492</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T11" t="n">
-        <v>44.75534983878492</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U11" t="n">
-        <v>44.75534983878492</v>
+        <v>90.94173540790645</v>
       </c>
       <c r="V11" t="n">
-        <v>44.75534983878492</v>
+        <v>90.94173540790645</v>
       </c>
       <c r="W11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="X11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.75534983878492</v>
+        <v>61.40752671476977</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.75534983878492</v>
+        <v>35.13047875773111</v>
       </c>
       <c r="C12" t="n">
-        <v>44.75534983878492</v>
+        <v>5.596270064594435</v>
       </c>
       <c r="D12" t="n">
-        <v>44.75534983878492</v>
+        <v>5.596270064594435</v>
       </c>
       <c r="E12" t="n">
-        <v>44.75534983878492</v>
+        <v>5.596270064594435</v>
       </c>
       <c r="F12" t="n">
-        <v>44.75534983878492</v>
+        <v>5.596270064594435</v>
       </c>
       <c r="G12" t="n">
-        <v>44.75534983878492</v>
+        <v>5.596270064594435</v>
       </c>
       <c r="H12" t="n">
-        <v>31.43760925162216</v>
+        <v>5.596270064594435</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31755863041104</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K12" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L12" t="n">
-        <v>15.41791561844897</v>
+        <v>16.55951693774548</v>
       </c>
       <c r="M12" t="n">
-        <v>30.237077232298</v>
+        <v>45.50599487788873</v>
       </c>
       <c r="N12" t="n">
-        <v>45.05623884614702</v>
+        <v>74.45247281803199</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999604</v>
+        <v>103.3989507581752</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999604</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.75534983878492</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="R12" t="n">
-        <v>44.75534983878492</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="S12" t="n">
-        <v>44.75534983878492</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="T12" t="n">
-        <v>44.75534983878492</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="U12" t="n">
-        <v>44.75534983878492</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="V12" t="n">
-        <v>44.75534983878492</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="W12" t="n">
-        <v>44.75534983878492</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="X12" t="n">
-        <v>44.75534983878492</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.75534983878492</v>
+        <v>35.13047875773111</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.197508009199921</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="C14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="D14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="E14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="F14" t="n">
-        <v>77.58478618264616</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G14" t="n">
-        <v>51.37370976959002</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H14" t="n">
-        <v>25.16263335653389</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I14" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J14" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K14" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L14" t="n">
-        <v>27.76539324435036</v>
+        <v>16.16154619805366</v>
       </c>
       <c r="M14" t="n">
-        <v>53.45486923678668</v>
+        <v>45.10802413819691</v>
       </c>
       <c r="N14" t="n">
-        <v>79.14434522922299</v>
+        <v>74.05450207834016</v>
       </c>
       <c r="O14" t="n">
-        <v>89.84137618936442</v>
+        <v>103.0009800184834</v>
       </c>
       <c r="P14" t="n">
-        <v>103.7958625957023</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.58478618264616</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R14" t="n">
-        <v>77.58478618264616</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S14" t="n">
-        <v>77.58478618264616</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T14" t="n">
-        <v>77.58478618264616</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U14" t="n">
-        <v>77.58478618264616</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V14" t="n">
-        <v>77.58478618264616</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="W14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="X14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.58478618264616</v>
+        <v>31.8733180216331</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="C15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="D15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="E15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="F15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="H15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="I15" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J15" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K15" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L15" t="n">
-        <v>26.72743461839334</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M15" t="n">
-        <v>52.41691061082966</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N15" t="n">
-        <v>78.10638660326597</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O15" t="n">
-        <v>103.7958625957023</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P15" t="n">
-        <v>103.7958625957023</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.03929231488554</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="R15" t="n">
-        <v>54.82821590182941</v>
+        <v>94.19889614400446</v>
       </c>
       <c r="S15" t="n">
-        <v>28.61713948877328</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="T15" t="n">
-        <v>2.406063075717142</v>
+        <v>64.66468745086779</v>
       </c>
       <c r="U15" t="n">
-        <v>2.075917251914046</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="V15" t="n">
-        <v>2.075917251914046</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="W15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="X15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.075917251914046</v>
+        <v>31.8733180216331</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.075917251914046</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.0756942619012</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="C17" t="n">
-        <v>141.0756942619012</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="D17" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E17" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F17" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G17" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H17" t="n">
-        <v>95.25999724257764</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I17" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J17" t="n">
         <v>3.628603203930429</v>
@@ -5521,7 +5521,7 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L17" t="n">
-        <v>48.53256785256949</v>
+        <v>32.76377984426642</v>
       </c>
       <c r="M17" t="n">
         <v>77.66774449290548</v>
@@ -5536,31 +5536,31 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W17" t="n">
-        <v>141.0756942619012</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="X17" t="n">
-        <v>141.0756942619012</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="Y17" t="n">
-        <v>141.0756942619012</v>
+        <v>89.79876615787424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="C18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="D18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="E18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="F18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="G18" t="n">
-        <v>141.0756942619012</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="H18" t="n">
-        <v>95.25999724257764</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I18" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J18" t="n">
         <v>3.628603203930429</v>
@@ -5615,31 +5615,31 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.4301601965215</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R18" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="S18" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="T18" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="U18" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="V18" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="W18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="X18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="Y18" t="n">
-        <v>181.4301601965215</v>
+        <v>67.04219587705748</v>
       </c>
     </row>
     <row r="19">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95.25999724257764</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C20" t="n">
-        <v>95.25999724257764</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D20" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E20" t="n">
         <v>3.628603203930429</v>
@@ -5773,31 +5773,31 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.4301601965215</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="R20" t="n">
-        <v>181.4301601965215</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="S20" t="n">
-        <v>181.4301601965215</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="T20" t="n">
-        <v>181.4301601965215</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="U20" t="n">
-        <v>181.4301601965215</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="V20" t="n">
-        <v>141.0756942619012</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="W20" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X20" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y20" t="n">
-        <v>141.0756942619012</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C21" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D21" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E21" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F21" t="n">
         <v>3.628603203930429</v>
@@ -5837,13 +5837,13 @@
         <v>3.628603203930429</v>
       </c>
       <c r="L21" t="n">
-        <v>46.71826625060427</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M21" t="n">
-        <v>91.62223089924333</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N21" t="n">
-        <v>136.5261955478824</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O21" t="n">
         <v>181.4301601965215</v>
@@ -5852,31 +5852,31 @@
         <v>181.4301601965215</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.4301601965215</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R21" t="n">
-        <v>181.4301601965215</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="S21" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="T21" t="n">
-        <v>181.4301601965215</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="U21" t="n">
-        <v>135.6144631771978</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="V21" t="n">
-        <v>135.6144631771978</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="W21" t="n">
-        <v>89.79876615787424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="X21" t="n">
-        <v>49.44430022325403</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.44430022325403</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="22">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L23" t="n">
         <v>64.02277838053847</v>
@@ -6001,40 +6001,40 @@
         <v>138.9717998747206</v>
       </c>
       <c r="N23" t="n">
-        <v>213.9208213689028</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O23" t="n">
-        <v>288.8698428630849</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P23" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q23" t="n">
-        <v>235.4688572440421</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R23" t="n">
-        <v>158.9980670244909</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="S23" t="n">
-        <v>158.9980670244909</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="T23" t="n">
-        <v>82.52727680493966</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="U23" t="n">
-        <v>82.52727680493966</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="V23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K24" t="n">
-        <v>34.32218053364127</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L24" t="n">
-        <v>86.85978302020621</v>
+        <v>81.00550807957057</v>
       </c>
       <c r="M24" t="n">
-        <v>131.7637476688453</v>
+        <v>155.9545295737527</v>
       </c>
       <c r="N24" t="n">
-        <v>198.9288298350974</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="O24" t="n">
-        <v>227.8753077752406</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="P24" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q24" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R24" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S24" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T24" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U24" t="n">
-        <v>302.8243292694228</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="V24" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="W24" t="n">
-        <v>158.9980670244909</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="X24" t="n">
-        <v>82.52727680493966</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158.9980670244909</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="C26" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="D26" t="n">
-        <v>6.056486585388456</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="E26" t="n">
-        <v>6.056486585388456</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="F26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K26" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L26" t="n">
-        <v>64.02277838053841</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9717998747205</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N26" t="n">
-        <v>213.9208213689029</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O26" t="n">
-        <v>288.869842863085</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P26" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q26" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R26" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S26" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T26" t="n">
-        <v>235.4688572440421</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U26" t="n">
-        <v>235.4688572440421</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="V26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="W26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="X26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="Y26" t="n">
-        <v>235.4688572440421</v>
+        <v>149.8827488303203</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J27" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K27" t="n">
-        <v>34.32218053364124</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L27" t="n">
-        <v>109.2712020278234</v>
+        <v>81.00550807957057</v>
       </c>
       <c r="M27" t="n">
-        <v>184.2202235220055</v>
+        <v>155.9545295737527</v>
       </c>
       <c r="N27" t="n">
-        <v>251.3853056882576</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="O27" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="P27" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q27" t="n">
-        <v>302.8243292694228</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R27" t="n">
-        <v>302.8243292694228</v>
+        <v>203.5969687690548</v>
       </c>
       <c r="S27" t="n">
-        <v>302.8243292694228</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="T27" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="U27" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="V27" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="W27" t="n">
-        <v>226.3535390498716</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="X27" t="n">
-        <v>149.8827488303204</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.41195861076918</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158.9980670244909</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C29" t="n">
-        <v>158.9980670244909</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D29" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K29" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L29" t="n">
         <v>64.02277838053847</v>
       </c>
       <c r="M29" t="n">
-        <v>138.9717998747207</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N29" t="n">
-        <v>213.9208213689028</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O29" t="n">
-        <v>288.869842863085</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P29" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R29" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S29" t="n">
-        <v>302.8243292694228</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="T29" t="n">
-        <v>302.8243292694228</v>
+        <v>158.9980670244908</v>
       </c>
       <c r="U29" t="n">
-        <v>302.8243292694228</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="V29" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W29" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X29" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y29" t="n">
-        <v>226.3535390498716</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K30" t="n">
-        <v>34.32218053364127</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L30" t="n">
-        <v>48.54258814289035</v>
+        <v>81.00550807957057</v>
       </c>
       <c r="M30" t="n">
-        <v>93.44655279152941</v>
+        <v>155.9545295737527</v>
       </c>
       <c r="N30" t="n">
-        <v>160.6116349577815</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="O30" t="n">
-        <v>227.8753077752407</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="P30" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q30" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R30" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S30" t="n">
-        <v>226.3535390498716</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T30" t="n">
-        <v>149.8827488303204</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U30" t="n">
-        <v>73.41195861076918</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="V30" t="n">
-        <v>6.056486585388456</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="W30" t="n">
-        <v>6.056486585388456</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="X30" t="n">
-        <v>6.056486585388456</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="C32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="D32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="E32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="F32" t="n">
-        <v>82.52727680493967</v>
+        <v>73.41195861076915</v>
       </c>
       <c r="G32" t="n">
-        <v>82.52727680493967</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K32" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L32" t="n">
         <v>64.02277838053847</v>
@@ -6712,40 +6712,40 @@
         <v>138.9717998747206</v>
       </c>
       <c r="N32" t="n">
-        <v>213.9208213689028</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O32" t="n">
-        <v>288.869842863085</v>
+        <v>288.8698428630848</v>
       </c>
       <c r="P32" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.4688572440421</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="R32" t="n">
-        <v>158.9980670244909</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="S32" t="n">
-        <v>82.52727680493967</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="T32" t="n">
-        <v>82.52727680493967</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="U32" t="n">
-        <v>82.52727680493967</v>
+        <v>226.3535390498715</v>
       </c>
       <c r="V32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="W32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="X32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.52727680493967</v>
+        <v>149.8827488303203</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="C33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="D33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="E33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="F33" t="n">
-        <v>158.9980670244909</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="G33" t="n">
-        <v>82.52727680493967</v>
+        <v>82.52727680493965</v>
       </c>
       <c r="H33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K33" t="n">
-        <v>6.056486585388456</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L33" t="n">
-        <v>81.0055080795706</v>
+        <v>20.27689419463754</v>
       </c>
       <c r="M33" t="n">
-        <v>155.9545295737528</v>
+        <v>77.97726478687636</v>
       </c>
       <c r="N33" t="n">
-        <v>227.8753077752407</v>
+        <v>152.9262862810585</v>
       </c>
       <c r="O33" t="n">
-        <v>302.8243292694228</v>
+        <v>227.8753077752406</v>
       </c>
       <c r="P33" t="n">
-        <v>302.8243292694228</v>
+        <v>302.8243292694227</v>
       </c>
       <c r="Q33" t="n">
-        <v>302.8243292694228</v>
+        <v>280.067758988606</v>
       </c>
       <c r="R33" t="n">
-        <v>302.8243292694228</v>
+        <v>280.067758988606</v>
       </c>
       <c r="S33" t="n">
-        <v>302.8243292694228</v>
+        <v>280.067758988606</v>
       </c>
       <c r="T33" t="n">
-        <v>302.8243292694228</v>
+        <v>203.5969687690548</v>
       </c>
       <c r="U33" t="n">
-        <v>302.8243292694228</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="V33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="W33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="X33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
       <c r="Y33" t="n">
-        <v>226.3535390498716</v>
+        <v>127.1261785495036</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="C34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="D34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="E34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="F34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="G34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="H34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="I34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="J34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="K34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="L34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="M34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="N34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="O34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="P34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Q34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="R34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="S34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="T34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="U34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="V34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="W34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="X34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
       <c r="Y34" t="n">
-        <v>302.8243292694228</v>
+        <v>6.056486585388455</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.20971817452863</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="C35" t="n">
-        <v>66.20971817452863</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="D35" t="n">
-        <v>66.20971817452863</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="E35" t="n">
-        <v>66.20971817452863</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="F35" t="n">
-        <v>66.20971817452863</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="G35" t="n">
-        <v>66.20971817452863</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="H35" t="n">
-        <v>66.20971817452863</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="I35" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="J35" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="K35" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="L35" t="n">
-        <v>62.82527037133855</v>
+        <v>49.7199208109309</v>
       </c>
       <c r="M35" t="n">
-        <v>122.9551302516717</v>
+        <v>95.72246436496977</v>
       </c>
       <c r="N35" t="n">
-        <v>183.0849901320048</v>
+        <v>125.9118328842248</v>
       </c>
       <c r="O35" t="n">
-        <v>228.9944424030889</v>
+        <v>171.9143764382637</v>
       </c>
       <c r="P35" t="n">
-        <v>242.9489288094268</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.5981892110867</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="R35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="S35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="T35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="U35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="V35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="W35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="X35" t="n">
-        <v>181.5981892110867</v>
+        <v>144.5271218361356</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.5604577728687</v>
+        <v>97.59054030972106</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="C36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="D36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="E36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="F36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="G36" t="n">
-        <v>4.858978576188536</v>
+        <v>97.59054030972106</v>
       </c>
       <c r="H36" t="n">
-        <v>4.858978576188536</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="I36" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="J36" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="K36" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="L36" t="n">
-        <v>64.98883845652166</v>
+        <v>47.86123218248486</v>
       </c>
       <c r="M36" t="n">
-        <v>122.6892090487605</v>
+        <v>93.86377573652373</v>
       </c>
       <c r="N36" t="n">
-        <v>182.8190689290936</v>
+        <v>139.8663192905626</v>
       </c>
       <c r="O36" t="n">
-        <v>242.9489288094268</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="P36" t="n">
-        <v>242.9489288094268</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.19235852861</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="R36" t="n">
-        <v>158.8416189302699</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="S36" t="n">
-        <v>97.49087933192983</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="T36" t="n">
-        <v>36.14013973358973</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="U36" t="n">
-        <v>36.14013973358973</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="V36" t="n">
-        <v>4.858978576188536</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="W36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="X36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.858978576188536</v>
+        <v>116.1757110373702</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="C37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="D37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="E37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="F37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="G37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="H37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="I37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="J37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="K37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="L37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="M37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="N37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="O37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="P37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="R37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="S37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="T37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="U37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="V37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="W37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="X37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.858978576188536</v>
+        <v>3.71737725689203</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="C38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="D38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="E38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="F38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="G38" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="H38" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="I38" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="J38" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="K38" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="L38" t="n">
-        <v>53.24011483522024</v>
+        <v>49.7199208109309</v>
       </c>
       <c r="M38" t="n">
-        <v>102.4996603369661</v>
+        <v>95.72246436496977</v>
       </c>
       <c r="N38" t="n">
-        <v>151.7592058387119</v>
+        <v>125.9118328842248</v>
       </c>
       <c r="O38" t="n">
-        <v>185.0739802673827</v>
+        <v>171.9143764382637</v>
       </c>
       <c r="P38" t="n">
-        <v>199.0284666737205</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.7687528672254</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="R38" t="n">
-        <v>148.7687528672254</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="S38" t="n">
-        <v>148.7687528672254</v>
+        <v>138.932281318187</v>
       </c>
       <c r="T38" t="n">
-        <v>148.7687528672254</v>
+        <v>91.99569979177244</v>
       </c>
       <c r="U38" t="n">
-        <v>98.50903906073034</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="V38" t="n">
-        <v>48.24932525423526</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="W38" t="n">
-        <v>48.24932525423526</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="X38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.98056933347441</v>
+        <v>45.05911826535792</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48.24932525423526</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="C39" t="n">
-        <v>48.24932525423526</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="D39" t="n">
-        <v>48.24932525423526</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="E39" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="F39" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="G39" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="H39" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="I39" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="J39" t="n">
-        <v>3.98056933347441</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="K39" t="n">
-        <v>32.24626328172723</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="L39" t="n">
-        <v>46.46667089097632</v>
+        <v>49.7199208109309</v>
       </c>
       <c r="M39" t="n">
-        <v>91.37063553961538</v>
+        <v>95.72246436496977</v>
       </c>
       <c r="N39" t="n">
-        <v>140.6301810413612</v>
+        <v>141.7250079190086</v>
       </c>
       <c r="O39" t="n">
-        <v>169.5766589815045</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0284666737205</v>
+        <v>185.8688628446015</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.0284666737205</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="R39" t="n">
-        <v>148.7687528672254</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="S39" t="n">
-        <v>148.7687528672254</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="T39" t="n">
-        <v>148.7687528672254</v>
+        <v>163.1122925637847</v>
       </c>
       <c r="U39" t="n">
-        <v>98.50903906073034</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="V39" t="n">
-        <v>98.50903906073034</v>
+        <v>116.1757110373702</v>
       </c>
       <c r="W39" t="n">
-        <v>48.24932525423526</v>
+        <v>97.59054030972106</v>
       </c>
       <c r="X39" t="n">
-        <v>48.24932525423526</v>
+        <v>50.65395878330655</v>
       </c>
       <c r="Y39" t="n">
-        <v>48.24932525423526</v>
+        <v>50.65395878330655</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="C40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="D40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="E40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="F40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="G40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="H40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="I40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="J40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="K40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="L40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="M40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="N40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="O40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="P40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="Q40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="R40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="S40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="T40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="U40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="V40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="W40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="X40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
       <c r="Y40" t="n">
-        <v>199.0284666737205</v>
+        <v>3.71737725689203</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="C41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="D41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="E41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="F41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="G41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="H41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="I41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="J41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="K41" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="L41" t="n">
-        <v>32.47294022700111</v>
+        <v>32.47294022700109</v>
       </c>
       <c r="M41" t="n">
-        <v>62.51799707254419</v>
+        <v>47.34956897547734</v>
       </c>
       <c r="N41" t="n">
-        <v>92.56305391808728</v>
+        <v>77.3946258210204</v>
       </c>
       <c r="O41" t="n">
         <v>107.4396826665635</v>
@@ -7432,31 +7432,31 @@
         <v>121.3941690729013</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.73907587267374</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R41" t="n">
-        <v>90.73907587267374</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S41" t="n">
-        <v>90.73907587267374</v>
+        <v>90.73907587267367</v>
       </c>
       <c r="T41" t="n">
-        <v>90.73907587267374</v>
+        <v>60.08398267244607</v>
       </c>
       <c r="U41" t="n">
-        <v>90.73907587267374</v>
+        <v>29.42888947221848</v>
       </c>
       <c r="V41" t="n">
-        <v>90.73907587267374</v>
+        <v>29.42888947221848</v>
       </c>
       <c r="W41" t="n">
-        <v>60.08398267244613</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="X41" t="n">
-        <v>60.08398267244613</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.42888947221851</v>
+        <v>2.427883381458025</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.32741239162938</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="C42" t="n">
-        <v>33.08297658168564</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="D42" t="n">
-        <v>2.427883381458027</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="E42" t="n">
-        <v>2.427883381458027</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="F42" t="n">
-        <v>2.427883381458027</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="G42" t="n">
-        <v>2.427883381458027</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="H42" t="n">
-        <v>2.427883381458027</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="I42" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="J42" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="K42" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="L42" t="n">
-        <v>16.64829099070711</v>
+        <v>16.64829099070708</v>
       </c>
       <c r="M42" t="n">
-        <v>46.6933478362502</v>
+        <v>46.69334783625014</v>
       </c>
       <c r="N42" t="n">
-        <v>76.73840468179328</v>
+        <v>76.7384046817932</v>
       </c>
       <c r="O42" t="n">
-        <v>105.6848826219365</v>
+        <v>105.6848826219364</v>
       </c>
       <c r="P42" t="n">
         <v>121.3941690729013</v>
       </c>
       <c r="Q42" t="n">
-        <v>98.6375987920846</v>
+        <v>98.6375987920845</v>
       </c>
       <c r="R42" t="n">
-        <v>98.6375987920846</v>
+        <v>98.6375987920845</v>
       </c>
       <c r="S42" t="n">
-        <v>98.6375987920846</v>
+        <v>67.98250559185691</v>
       </c>
       <c r="T42" t="n">
-        <v>98.6375987920846</v>
+        <v>37.32741239162931</v>
       </c>
       <c r="U42" t="n">
-        <v>98.6375987920846</v>
+        <v>37.32741239162931</v>
       </c>
       <c r="V42" t="n">
-        <v>98.6375987920846</v>
+        <v>37.32741239162931</v>
       </c>
       <c r="W42" t="n">
-        <v>67.98250559185699</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="X42" t="n">
-        <v>67.98250559185699</v>
+        <v>6.672319191401716</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.32741239162938</v>
+        <v>6.672319191401716</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="D43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="E43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="F43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="G43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="H43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="I43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="J43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="K43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="L43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="M43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="N43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="O43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="P43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="R43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="S43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="T43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="U43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="V43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="W43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="X43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94.39316298214086</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="C44" t="n">
-        <v>63.73806978191325</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="D44" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="E44" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="F44" t="n">
-        <v>2.427883381458027</v>
+        <v>63.73806978191321</v>
       </c>
       <c r="G44" t="n">
-        <v>2.427883381458027</v>
+        <v>33.08297658168562</v>
       </c>
       <c r="H44" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="I44" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="J44" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="K44" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="L44" t="n">
-        <v>32.47294022700111</v>
+        <v>17.30451212993428</v>
       </c>
       <c r="M44" t="n">
-        <v>62.51799707254419</v>
+        <v>47.34956897547734</v>
       </c>
       <c r="N44" t="n">
         <v>77.3946258210204</v>
@@ -7669,31 +7669,31 @@
         <v>121.3941690729013</v>
       </c>
       <c r="Q44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="T44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="U44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="V44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="W44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="X44" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Y44" t="n">
-        <v>94.39316298214086</v>
+        <v>94.39316298214081</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="C45" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="D45" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="E45" t="n">
-        <v>33.08297658168564</v>
+        <v>63.73806978191321</v>
       </c>
       <c r="F45" t="n">
-        <v>33.08297658168564</v>
+        <v>63.73806978191321</v>
       </c>
       <c r="G45" t="n">
-        <v>33.08297658168564</v>
+        <v>33.08297658168562</v>
       </c>
       <c r="H45" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="I45" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="J45" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="K45" t="n">
-        <v>2.427883381458027</v>
+        <v>18.13716983242287</v>
       </c>
       <c r="L45" t="n">
-        <v>16.64829099070711</v>
+        <v>32.35757744167192</v>
       </c>
       <c r="M45" t="n">
-        <v>46.6933478362502</v>
+        <v>62.40263428721498</v>
       </c>
       <c r="N45" t="n">
-        <v>76.73840468179328</v>
+        <v>92.44769113275804</v>
       </c>
       <c r="O45" t="n">
-        <v>105.6848826219365</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="P45" t="n">
         <v>121.3941690729013</v>
       </c>
       <c r="Q45" t="n">
-        <v>98.6375987920846</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R45" t="n">
-        <v>94.39316298214086</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S45" t="n">
-        <v>94.39316298214086</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="T45" t="n">
-        <v>94.39316298214086</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="U45" t="n">
-        <v>94.39316298214086</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="V45" t="n">
-        <v>63.73806978191325</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="W45" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="X45" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
       <c r="Y45" t="n">
-        <v>33.08297658168564</v>
+        <v>94.39316298214081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="C46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="D46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="E46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="F46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="G46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="H46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="I46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="J46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="K46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="L46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="M46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="N46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="O46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="P46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="R46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="S46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="T46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="U46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="V46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="W46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="X46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.427883381458027</v>
+        <v>2.427883381458025</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8224,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>116.8735187081364</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
         <v>111.9488011414238</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.35872216232906</v>
+        <v>92.69551391125015</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167111</v>
+        <v>87.37957094959813</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.87181201565983</v>
+        <v>41.07947370627261</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104772</v>
+        <v>19.34243478531801</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239171</v>
+        <v>31.51549612262141</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228356</v>
+        <v>53.85417558937374</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,19 +8695,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402524</v>
+        <v>79.27897249523153</v>
       </c>
       <c r="M11" t="n">
-        <v>23.86371338847809</v>
+        <v>36.95236153195891</v>
       </c>
       <c r="N11" t="n">
-        <v>2.491545449292984</v>
+        <v>31.46180477983035</v>
       </c>
       <c r="O11" t="n">
-        <v>36.7677253491625</v>
+        <v>51.03774184036882</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>69.57222331010286</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.093443300258059</v>
+        <v>18.78689346858733</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>75.98907153795173</v>
+        <v>64.00216333302343</v>
       </c>
       <c r="M14" t="n">
-        <v>34.84382892240465</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N14" t="n">
-        <v>28.17190382255055</v>
+        <v>31.46180477983035</v>
       </c>
       <c r="O14" t="n">
-        <v>32.6039570120841</v>
+        <v>51.03774184036882</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L15" t="n">
-        <v>10.53647450225274</v>
+        <v>13.69345016832928</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>95.39764593815653</v>
+        <v>79.46957724290091</v>
       </c>
       <c r="M17" t="n">
-        <v>38.32433462735381</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N17" t="n">
         <v>47.58047822275535</v>
@@ -9403,7 +9403,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L20" t="n">
         <v>79.46957724290091</v>
@@ -9485,7 +9485,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L21" t="n">
-        <v>29.16086407820683</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.11867344292506</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P21" t="n">
         <v>5.093443300258059</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>84.60094559083478</v>
+        <v>84.60094559083473</v>
       </c>
       <c r="N23" t="n">
-        <v>77.92902049098069</v>
+        <v>77.92902049098063</v>
       </c>
       <c r="O23" t="n">
-        <v>97.50495755151917</v>
+        <v>97.50495755151911</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>38.70423724981399</v>
+        <v>61.34203422720509</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.803733368925066</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P24" t="n">
-        <v>80.79952561761377</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>84.60094559083478</v>
+        <v>84.60094559083475</v>
       </c>
       <c r="N26" t="n">
-        <v>77.92902049098092</v>
+        <v>77.92902049098066</v>
       </c>
       <c r="O26" t="n">
-        <v>97.50495755151923</v>
+        <v>97.50495755151914</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,19 +9956,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>61.34203422720515</v>
+        <v>61.34203422720509</v>
       </c>
       <c r="M27" t="n">
-        <v>30.34854226822537</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.803733368925066</v>
       </c>
       <c r="O27" t="n">
-        <v>22.71974307173937</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P27" t="n">
         <v>5.093443300258059</v>
@@ -10114,19 +10114,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>84.60094559083483</v>
+        <v>84.60094559083475</v>
       </c>
       <c r="N29" t="n">
-        <v>77.92902049098069</v>
+        <v>77.92902049098066</v>
       </c>
       <c r="O29" t="n">
-        <v>97.50495755151917</v>
+        <v>97.50495755151914</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.34203422720509</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.803733368925066</v>
       </c>
       <c r="O30" t="n">
-        <v>38.70423724981406</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P30" t="n">
-        <v>80.79952561761377</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,13 +10357,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>84.60094559083478</v>
+        <v>84.60094559083475</v>
       </c>
       <c r="N32" t="n">
-        <v>77.92902049098069</v>
+        <v>77.92902049098066</v>
       </c>
       <c r="O32" t="n">
-        <v>97.50495755151917</v>
+        <v>97.50495755151914</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10433,19 +10433,19 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L33" t="n">
-        <v>61.34203422720512</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>30.34854226822534</v>
+        <v>12.92566256929269</v>
       </c>
       <c r="N33" t="n">
-        <v>4.803733368925094</v>
+        <v>7.862564977707109</v>
       </c>
       <c r="O33" t="n">
         <v>46.46721571115037</v>
       </c>
       <c r="P33" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761371</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>108.5919157831171</v>
+        <v>96.5073216001766</v>
       </c>
       <c r="M35" t="n">
-        <v>69.63209547583577</v>
+        <v>55.36207898462945</v>
       </c>
       <c r="N35" t="n">
-        <v>62.96017037598168</v>
+        <v>32.71724980923621</v>
       </c>
       <c r="O35" t="n">
-        <v>68.17205934636965</v>
+        <v>68.26609094531386</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L36" t="n">
-        <v>46.3731841122061</v>
+        <v>30.22570435994321</v>
       </c>
       <c r="M36" t="n">
-        <v>12.92566256929272</v>
+        <v>1.109675662020038</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>31.49836559615139</v>
+        <v>17.2283491049451</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10825,19 +10825,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>99.79722255745629</v>
+        <v>96.5073216001766</v>
       </c>
       <c r="M38" t="n">
-        <v>58.6519799419092</v>
+        <v>55.36207898462945</v>
       </c>
       <c r="N38" t="n">
-        <v>51.98005484205511</v>
+        <v>32.71724980923621</v>
       </c>
       <c r="O38" t="n">
-        <v>55.45016253585111</v>
+        <v>68.26609094531386</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,22 +10904,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>32.10316762099981</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.109675662020038</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>15.35088584388851</v>
       </c>
       <c r="P39" t="n">
-        <v>34.84274399946619</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>80.38864815725151</v>
+        <v>80.38864815725154</v>
       </c>
       <c r="M41" t="n">
-        <v>39.24340554170441</v>
+        <v>23.92176099921266</v>
       </c>
       <c r="N41" t="n">
-        <v>32.57148044185032</v>
+        <v>32.57148044185038</v>
       </c>
       <c r="O41" t="n">
-        <v>36.825772959897</v>
+        <v>52.14741750238886</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>20.96140941234373</v>
+        <v>20.96140941234376</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>80.38864815725151</v>
+        <v>65.06700361475981</v>
       </c>
       <c r="M44" t="n">
-        <v>39.24340554170441</v>
+        <v>39.24340554170442</v>
       </c>
       <c r="N44" t="n">
-        <v>17.24983589935852</v>
+        <v>32.57148044185038</v>
       </c>
       <c r="O44" t="n">
-        <v>52.14741750238881</v>
+        <v>52.14741750238886</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>56.07772172701999</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>20.96140941234373</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.180569077725</v>
+        <v>422.1995722555538</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6598249464623</v>
+        <v>349.8544412414009</v>
       </c>
       <c r="I8" t="n">
-        <v>253.2845231898766</v>
+        <v>254.0171432031191</v>
       </c>
       <c r="J8" t="n">
-        <v>101.17202184758</v>
+        <v>102.7848928118222</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840931</v>
+        <v>60.70779161014215</v>
       </c>
       <c r="L8" t="n">
-        <v>13.7627297632223</v>
+        <v>16.76157374843149</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3.201821678392491</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985101</v>
+        <v>54.5334818255964</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343943</v>
+        <v>119.7456922541478</v>
       </c>
       <c r="R8" t="n">
-        <v>209.6584962505987</v>
+        <v>210.8522046198834</v>
       </c>
       <c r="S8" t="n">
-        <v>235.2672937814706</v>
+        <v>235.7003286962431</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3436445631938</v>
+        <v>219.4268309741391</v>
       </c>
       <c r="U8" t="n">
-        <v>248.788833337017</v>
+        <v>248.7903535912433</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0251329071496</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7503459159327</v>
+        <v>137.8485434927983</v>
       </c>
       <c r="I9" t="n">
-        <v>116.9507599882392</v>
+        <v>117.3008285524511</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45811026959613</v>
+        <v>82.41872516662653</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262881</v>
+        <v>12.68228842614342</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552915</v>
+        <v>55.12426280168498</v>
       </c>
       <c r="R9" t="n">
-        <v>154.3921839405207</v>
+        <v>155.0234668188626</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0224770741423</v>
+        <v>208.2113357199305</v>
       </c>
       <c r="T9" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1362732784248</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6495544029776</v>
+        <v>249.650223323801</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2429048733869</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5776180378764</v>
+        <v>167.6534056705688</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7355108777182</v>
+        <v>167.9918559584403</v>
       </c>
       <c r="J10" t="n">
-        <v>132.2802453397308</v>
+        <v>132.882904255322</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719798</v>
+        <v>88.45459360501792</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081538</v>
+        <v>62.28375451557027</v>
       </c>
       <c r="M10" t="n">
-        <v>57.64716518774021</v>
+        <v>58.98336779562749</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511906</v>
+        <v>46.60948608155044</v>
       </c>
       <c r="O10" t="n">
-        <v>70.7260729557852</v>
+        <v>71.93092583216584</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621556</v>
+        <v>90.88003821672547</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692978</v>
+        <v>152.3523689825176</v>
       </c>
       <c r="R10" t="n">
-        <v>221.05342233419</v>
+        <v>221.4367000758017</v>
       </c>
       <c r="S10" t="n">
-        <v>243.6919922925021</v>
+        <v>243.8405453516751</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0866353446397</v>
+        <v>218.1230568041136</v>
       </c>
       <c r="U10" t="n">
-        <v>291.219579948833</v>
+        <v>291.2200449036348</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23269,19 +23269,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>369.9075509671637</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7223238127198</v>
+        <v>392.4834572065145</v>
       </c>
       <c r="H11" t="n">
-        <v>331.7822574449363</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31017767184315</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.23937935806151</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R11" t="n">
         <v>180.8732471227138</v>
@@ -23314,13 +23314,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>222.998580009071</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>296.1528588730881</v>
       </c>
       <c r="X11" t="n">
         <v>348.8168793035129</v>
@@ -23339,7 +23339,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>174.6035610090341</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
@@ -23354,13 +23354,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>122.1978327507411</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>93.5403079778637</v>
+        <v>105.2845689641257</v>
       </c>
       <c r="J12" t="n">
-        <v>43.32485933570487</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.560154463009585</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>139.169341083075</v>
@@ -23390,7 +23390,7 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1070318577418</v>
+        <v>199.8681652515365</v>
       </c>
       <c r="U12" t="n">
         <v>249.633423953496</v>
@@ -23405,7 +23405,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>213.657399807388</v>
       </c>
     </row>
     <row r="13">
@@ -23506,19 +23506,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>399.146417573369</v>
+        <v>369.9075509671637</v>
       </c>
       <c r="G14" t="n">
-        <v>395.7733581637942</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>319.0178549773019</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>212.7621736671887</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.25926382413493</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R14" t="n">
         <v>180.8732471227138</v>
@@ -23551,13 +23551,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>219.5133071096113</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>284.0655753948178</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>299.6381317725478</v>
       </c>
       <c r="X14" t="n">
         <v>348.8168793035129</v>
@@ -23594,10 +23594,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I15" t="n">
-        <v>108.5091580928627</v>
+        <v>79.27029148665741</v>
       </c>
       <c r="J15" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>113.2203754341494</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S15" t="n">
-        <v>177.5193478549086</v>
+        <v>174.2294468976288</v>
       </c>
       <c r="T15" t="n">
-        <v>203.1580662088162</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>249.3065795879309</v>
+        <v>246.408834824759</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>254.0103901567258</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23679,22 +23679,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N16" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q16" t="n">
         <v>134.42632090912</v>
@@ -23734,10 +23734,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>293.6461981989344</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
@@ -23749,13 +23749,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>299.6092805770971</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>16.92148773771177</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.25730819778649</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
@@ -23797,10 +23797,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>303.4593392543825</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>332.5714363460518</v>
       </c>
     </row>
     <row r="18">
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>120.8188612032404</v>
+        <v>143.347865781249</v>
       </c>
       <c r="H18" t="n">
         <v>90.02485588290185</v>
       </c>
       <c r="I18" t="n">
-        <v>63.15161804373234</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>12.93616940157351</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>139.1693410830749</v>
+        <v>93.81180103394456</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
@@ -23873,7 +23873,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>237.8917167138007</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>273.7742155941173</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>314.601014887157</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.2082294730605</v>
+        <v>22.85068942393013</v>
       </c>
       <c r="R20" t="n">
-        <v>180.8732471227138</v>
+        <v>135.5157070735834</v>
       </c>
       <c r="S20" t="n">
-        <v>224.8250298051639</v>
+        <v>179.4674897560336</v>
       </c>
       <c r="T20" t="n">
         <v>217.3376759156334</v>
@@ -24028,10 +24028,10 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
-        <v>273.3535207257491</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>325.3917254792934</v>
+        <v>285.4408042040193</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24059,7 +24059,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>128.6268080761936</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
         <v>160.7697824785144</v>
@@ -24092,31 +24092,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>139.1693410830749</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T21" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>204.2758839043657</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>203.942385131042</v>
       </c>
       <c r="W21" t="n">
         <v>237.8917167138007</v>
       </c>
       <c r="X21" t="n">
-        <v>190.082142435689</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.8962664135933</v>
+        <v>225.4743497163279</v>
       </c>
     </row>
     <row r="22">
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.526312167933597</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R23" t="n">
         <v>105.1671648053581</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T23" t="n">
-        <v>141.6315935982777</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V23" t="n">
-        <v>237.5983596836674</v>
+        <v>246.6225246958962</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24341,19 +24341,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V24" t="n">
-        <v>182.6180078750455</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W24" t="n">
         <v>207.5431744455754</v>
       </c>
       <c r="X24" t="n">
-        <v>154.3269813936073</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.1901840962377</v>
+        <v>176.2143491084665</v>
       </c>
     </row>
     <row r="25">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.8502452797075</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>257.8910371568527</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>243.4256733258919</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>293.2766376311604</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G26" t="n">
         <v>421.7223238127198</v>
@@ -24466,7 +24466,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
         <v>180.8732471227138</v>
@@ -24496,13 +24496,13 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T26" t="n">
-        <v>150.6557586105065</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>137.1605103101125</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24545,7 +24545,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J27" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,16 +24566,16 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>139.169341083075</v>
+        <v>63.46325876571925</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>127.7622311864785</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1070318577418</v>
+        <v>184.9541191306234</v>
       </c>
       <c r="U27" t="n">
         <v>249.633423953496</v>
@@ -24584,13 +24584,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>207.5431744455754</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
         <v>154.3269813936073</v>
       </c>
       <c r="Y27" t="n">
-        <v>167.1901840962376</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24627,22 +24627,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K28" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L28" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M28" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N28" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O28" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P28" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q28" t="n">
         <v>134.42632090912</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>297.8744102919363</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>243.4256733258919</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>284.2524726189316</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
         <v>399.146417573369</v>
@@ -24730,16 +24730,16 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3376759156334</v>
+        <v>150.6557586105065</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.2228940778264</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24809,25 +24809,25 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
-        <v>127.7622311864784</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>153.4009495403861</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
         <v>173.9273416361403</v>
       </c>
       <c r="V30" t="n">
-        <v>182.6180078750455</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>176.2143491084665</v>
       </c>
     </row>
     <row r="31">
@@ -24928,13 +24928,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>355.0404065075929</v>
       </c>
       <c r="H32" t="n">
-        <v>269.2607383088717</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I32" t="n">
         <v>235.6180226107624</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.526312167933597</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>105.1671648053581</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S32" t="n">
-        <v>149.1189474878082</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T32" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W32" t="n">
         <v>325.3917254792934</v>
@@ -25007,13 +25007,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
-        <v>107.302430820197</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>85.06370016115872</v>
+        <v>116.6168697513961</v>
       </c>
       <c r="H33" t="n">
-        <v>59.6763136146765</v>
+        <v>59.67631361467653</v>
       </c>
       <c r="I33" t="n">
         <v>108.5091580928627</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>139.1693410830749</v>
@@ -25049,13 +25049,13 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>153.4009495403861</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V33" t="n">
-        <v>173.5938428628167</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
         <v>283.2492567629311</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>303.8190953947064</v>
+        <v>318.0891118859128</v>
       </c>
       <c r="C35" t="n">
         <v>333.5971194742085</v>
@@ -25168,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>375.2551081015694</v>
       </c>
       <c r="H35" t="n">
         <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
-        <v>174.8807904084057</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.470997270703805</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>139.9449235243326</v>
       </c>
       <c r="S35" t="n">
         <v>224.8250298051639</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>324.4316222713464</v>
+        <v>331.4617606840318</v>
       </c>
     </row>
     <row r="36">
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>142.3704634581418</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3823959320322</v>
+        <v>88.91518022088184</v>
       </c>
       <c r="I36" t="n">
-        <v>108.5091580928627</v>
+        <v>62.04194238171235</v>
       </c>
       <c r="J36" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.43210888071823</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S36" t="n">
-        <v>142.7310813014774</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T36" t="n">
-        <v>168.3697996553851</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V36" t="n">
-        <v>218.3315756343452</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>236.7820410517807</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25338,22 +25338,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N37" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q37" t="n">
         <v>134.42632090912</v>
@@ -25405,7 +25405,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>380.7940002143386</v>
       </c>
       <c r="H38" t="n">
         <v>344.9668206262274</v>
@@ -25414,7 +25414,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.45111280463037</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R38" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
-        <v>224.8250298051639</v>
+        <v>178.3578140940135</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>170.870460204483</v>
       </c>
       <c r="U38" t="n">
-        <v>198.9950570473865</v>
+        <v>202.2849580046662</v>
       </c>
       <c r="V38" t="n">
-        <v>263.547325332593</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>304.9908109419597</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25475,10 +25475,10 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>172.0989423795122</v>
+        <v>125.6317266683618</v>
       </c>
       <c r="E39" t="n">
-        <v>143.6344769360496</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25493,7 +25493,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.4122244146448</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S39" t="n">
         <v>203.4683135038341</v>
@@ -25526,16 +25526,16 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>199.8763072850659</v>
+        <v>203.1662082423456</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>233.492140094501</v>
+        <v>264.8499377425584</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>183.5658479998126</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25575,22 +25575,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N40" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q40" t="n">
         <v>134.42632090912</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>337.8253315672103</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25651,7 +25651,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.85968720483516</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>194.4764875369386</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3376759156334</v>
+        <v>186.9891336474081</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>218.4036314475913</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>295.043183211068</v>
+        <v>298.6607294494405</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>347.5804341269568</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>199.6404361633951</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>141.7504001112869</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
@@ -25727,10 +25727,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5091580928627</v>
+        <v>104.3071666410185</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>173.1197712356088</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>198.7584895895164</v>
       </c>
       <c r="U42" t="n">
         <v>249.633423953496</v>
@@ -25775,7 +25775,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>212.547724145368</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N43" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q43" t="n">
         <v>134.42632090912</v>
@@ -25867,10 +25867,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>303.2485772059831</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>288.7832133750223</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
@@ -25879,16 +25879,16 @@
         <v>368.7978753051437</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7223238127198</v>
+        <v>391.3737815444945</v>
       </c>
       <c r="H44" t="n">
-        <v>344.9668206262274</v>
+        <v>314.6182783580022</v>
       </c>
       <c r="I44" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.47723344320762</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R44" t="n">
         <v>180.8732471227138</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>351.1979803653293</v>
       </c>
     </row>
     <row r="45">
@@ -25952,13 +25952,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>187.4605452976028</v>
+        <v>157.1120030293775</v>
       </c>
       <c r="F45" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>130.4212402102891</v>
       </c>
       <c r="H45" t="n">
         <v>105.0338536638069</v>
@@ -25967,7 +25967,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,13 +25988,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R45" t="n">
-        <v>134.9673496312306</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S45" t="n">
-        <v>203.4683135038341</v>
+        <v>176.7373174739813</v>
       </c>
       <c r="T45" t="n">
         <v>229.1070318577418</v>
@@ -26003,10 +26003,10 @@
         <v>249.633423953496</v>
       </c>
       <c r="V45" t="n">
-        <v>218.951382911947</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>252.9007144947058</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>379607.9958737865</v>
+        <v>377430.3428244567</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>423474.033733714</v>
+        <v>433103.905799297</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430883.7734436991</v>
+        <v>433103.9057992969</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444117.9981585537</v>
+        <v>444117.9981585538</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465179.5691074565</v>
+        <v>465179.5691074567</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465179.5691074567</v>
+        <v>465179.5691074565</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>454757.555094589</v>
+        <v>444885.6635493151</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>447161.5926251482</v>
+        <v>444885.6635493149</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433862.1611404444</v>
+        <v>433862.1611404443</v>
       </c>
     </row>
     <row r="16">
@@ -26319,37 +26319,37 @@
         <v>128777.224093778</v>
       </c>
       <c r="D2" t="n">
-        <v>136034.206753663</v>
+        <v>135154.1333785518</v>
       </c>
       <c r="E2" t="n">
-        <v>154381.7055469247</v>
+        <v>157590.923232871</v>
       </c>
       <c r="F2" t="n">
-        <v>156851.049642422</v>
+        <v>157590.923232871</v>
       </c>
       <c r="G2" t="n">
+        <v>161215.8897435198</v>
+      </c>
+      <c r="H2" t="n">
         <v>161215.8897435197</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161215.8897435198</v>
       </c>
       <c r="I2" t="n">
         <v>168041.0450367806</v>
       </c>
       <c r="J2" t="n">
-        <v>168041.0450367806</v>
+        <v>168041.0450367807</v>
       </c>
       <c r="K2" t="n">
-        <v>168041.0450367806</v>
+        <v>168041.0450367807</v>
       </c>
       <c r="L2" t="n">
-        <v>168041.0450367806</v>
+        <v>168041.0450367807</v>
       </c>
       <c r="M2" t="n">
-        <v>164674.6650079323</v>
+        <v>161465.447321986</v>
       </c>
       <c r="N2" t="n">
-        <v>162205.3209124348</v>
+        <v>161465.447321986</v>
       </c>
       <c r="O2" t="n">
         <v>157840.4808113372</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33381.84090058054</v>
+        <v>29333.53725074572</v>
       </c>
       <c r="E3" t="n">
-        <v>96048.07996408459</v>
+        <v>104106.5114546858</v>
       </c>
       <c r="F3" t="n">
-        <v>3146.088583473842</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5319.599114480131</v>
+        <v>4417.886610604115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8070.314708508748</v>
+        <v>8070.314708508744</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16136.49255031373</v>
+        <v>16136.49255031374</v>
       </c>
       <c r="C4" t="n">
-        <v>16136.49255031373</v>
+        <v>16136.49255031374</v>
       </c>
       <c r="D4" t="n">
-        <v>14463.5461665856</v>
+        <v>14648.1953346597</v>
       </c>
       <c r="E4" t="n">
-        <v>9091.881153587801</v>
+        <v>10117.87746574952</v>
       </c>
       <c r="F4" t="n">
-        <v>9881.337707605135</v>
+        <v>10117.87746574953</v>
       </c>
       <c r="G4" t="n">
         <v>11413.47624804631</v>
@@ -26438,28 +26438,28 @@
         <v>11413.47624804631</v>
       </c>
       <c r="I4" t="n">
-        <v>14176.88425269621</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="J4" t="n">
-        <v>14176.88425269621</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="K4" t="n">
         <v>14176.8842526962</v>
       </c>
       <c r="L4" t="n">
-        <v>14176.88425269621</v>
+        <v>14176.8842526962</v>
       </c>
       <c r="M4" t="n">
-        <v>12780.09642932921</v>
+        <v>11512.08063747663</v>
       </c>
       <c r="N4" t="n">
-        <v>11804.41711585647</v>
+        <v>11512.08063747663</v>
       </c>
       <c r="O4" t="n">
-        <v>10207.0718055659</v>
+        <v>10207.07180556591</v>
       </c>
       <c r="P4" t="n">
-        <v>10207.0718055659</v>
+        <v>10207.07180556591</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41271.79307559616</v>
+        <v>41168.74359302536</v>
       </c>
       <c r="E5" t="n">
-        <v>11039.24867339523</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="F5" t="n">
-        <v>11706.83969785796</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="G5" t="n">
         <v>12886.88102139042</v>
@@ -26502,10 +26502,10 @@
         <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>13821.96630430658</v>
+        <v>12954.34930164123</v>
       </c>
       <c r="N5" t="n">
-        <v>13154.37527984384</v>
+        <v>12954.34930164123</v>
       </c>
       <c r="O5" t="n">
         <v>11974.33395631139</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228112.9353196835</v>
+        <v>-245155.3230075989</v>
       </c>
       <c r="C6" t="n">
-        <v>72218.67251195502</v>
+        <v>55176.28482403961</v>
       </c>
       <c r="D6" t="n">
-        <v>46917.02661090074</v>
+        <v>33296.89631666746</v>
       </c>
       <c r="E6" t="n">
-        <v>38202.49575585705</v>
+        <v>15933.79142946469</v>
       </c>
       <c r="F6" t="n">
-        <v>132116.7836534851</v>
+        <v>120040.3028841504</v>
       </c>
       <c r="G6" t="n">
-        <v>131595.9333596029</v>
+        <v>117162.5563676552</v>
       </c>
       <c r="H6" t="n">
-        <v>136915.532474083</v>
+        <v>121580.4429782593</v>
       </c>
       <c r="I6" t="n">
-        <v>131061.7736842772</v>
+        <v>116085.9028880987</v>
       </c>
       <c r="J6" t="n">
-        <v>139132.0883927859</v>
+        <v>124156.2175966076</v>
       </c>
       <c r="K6" t="n">
-        <v>139132.0883927859</v>
+        <v>124156.2175966076</v>
       </c>
       <c r="L6" t="n">
-        <v>139132.0883927859</v>
+        <v>124156.2175966076</v>
       </c>
       <c r="M6" t="n">
-        <v>138072.6022742965</v>
+        <v>121677.0624964373</v>
       </c>
       <c r="N6" t="n">
-        <v>137246.5285167345</v>
+        <v>121677.0624964373</v>
       </c>
       <c r="O6" t="n">
-        <v>135659.0750494599</v>
+        <v>120146.3324519424</v>
       </c>
       <c r="P6" t="n">
-        <v>135659.0750494599</v>
+        <v>120146.3324519424</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>350.6510585135856</v>
+        <v>345.924018028686</v>
       </c>
       <c r="E3" t="n">
         <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
         <v>464.6395681836371</v>
@@ -26761,7 +26761,7 @@
         <v>464.6395681836371</v>
       </c>
       <c r="J3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="K3" t="n">
         <v>464.6395681836371</v>
@@ -26770,16 +26770,16 @@
         <v>464.6395681836371</v>
       </c>
       <c r="M3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="N3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="O3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="P3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G4" t="n">
         <v>45.35754004913036</v>
@@ -26810,28 +26810,28 @@
         <v>45.35754004913036</v>
       </c>
       <c r="I4" t="n">
-        <v>75.70608231735569</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="J4" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="K4" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="L4" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M4" t="n">
-        <v>60.73723220235669</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="N4" t="n">
-        <v>49.75711666843013</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="O4" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="P4" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.97862587554681</v>
+        <v>34.25158539064719</v>
       </c>
       <c r="E3" t="n">
-        <v>113.9885096700515</v>
+        <v>118.7155501549511</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F4" t="n">
-        <v>10.98011553392656</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.40857440020479</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.34854226822533</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N4" t="n">
-        <v>10.98011553392656</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.40857440020479</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537026</v>
+        <v>1.390649318708284</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015982</v>
+        <v>14.24198733522122</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274375</v>
+        <v>53.61300785950118</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779595</v>
+        <v>118.0296226137174</v>
       </c>
       <c r="K8" t="n">
-        <v>179.3130837563719</v>
+        <v>176.8958082746391</v>
       </c>
       <c r="L8" t="n">
-        <v>222.453736347267</v>
+        <v>219.4548923620578</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5226439325573</v>
+        <v>244.1858521836362</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883431</v>
+        <v>248.1370345604161</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>234.3087653975106</v>
       </c>
       <c r="P8" t="n">
-        <v>202.7097910676452</v>
+        <v>199.9771103418998</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.2266110354129</v>
+        <v>150.1744816156593</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559406</v>
+        <v>87.35537526630934</v>
       </c>
       <c r="S8" t="n">
-        <v>32.12245626483752</v>
+        <v>31.68942135006506</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590836</v>
+        <v>6.087567392645517</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1112519454966627</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7440629821749094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291656</v>
+        <v>7.1860819594261</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312874</v>
+        <v>25.61795793891684</v>
       </c>
       <c r="J9" t="n">
-        <v>71.25824954189763</v>
+        <v>70.29763464486723</v>
       </c>
       <c r="K9" t="n">
-        <v>121.7916983141008</v>
+        <v>120.1498544505861</v>
       </c>
       <c r="L9" t="n">
-        <v>163.7639684124062</v>
+        <v>161.5563067217934</v>
       </c>
       <c r="M9" t="n">
-        <v>191.1048268899041</v>
+        <v>188.5285898256338</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>179.4506412376083</v>
+        <v>177.0315113773786</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411744</v>
+        <v>142.0833952540843</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395656</v>
+        <v>94.97898698780074</v>
       </c>
       <c r="R9" t="n">
-        <v>46.8284564558332</v>
+        <v>46.19717357749133</v>
       </c>
       <c r="S9" t="n">
-        <v>14.00950219627391</v>
+        <v>13.8206435504857</v>
       </c>
       <c r="T9" t="n">
-        <v>3.040078516735708</v>
+        <v>2.999095967626059</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852628</v>
+        <v>0.04895151198519143</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261378</v>
+        <v>0.6237974095599255</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234211</v>
+        <v>5.546126059541886</v>
       </c>
       <c r="I10" t="n">
-        <v>19.0156344518515</v>
+        <v>18.7592893711294</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147794</v>
+        <v>44.10247685588673</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760035</v>
+        <v>72.47391721978042</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969145</v>
+        <v>92.74166214493657</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917629</v>
+        <v>97.78307939128902</v>
       </c>
       <c r="N10" t="n">
-        <v>96.7624470157244</v>
+        <v>95.45801631929302</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490541</v>
+        <v>88.17092839852477</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401213</v>
+        <v>75.44546124350222</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555142</v>
+        <v>52.23452672233158</v>
       </c>
       <c r="R10" t="n">
-        <v>28.43147762964252</v>
+        <v>28.04819988803082</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01964064214005</v>
+        <v>10.87108758296706</v>
       </c>
       <c r="T10" t="n">
-        <v>2.701737663957134</v>
+        <v>2.665316204483317</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03402531324872324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>222.8398747259508</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N12" t="n">
-        <v>207.056104036874</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O12" t="n">
-        <v>223.515857614999</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P12" t="n">
         <v>190.8441275431999</v>
@@ -31992,7 +31992,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I14" t="n">
         <v>72.01212845185798</v>
@@ -32004,22 +32004,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M14" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O14" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R14" t="n">
         <v>117.334332763479</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H15" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I15" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K15" t="n">
         <v>161.3833488850657</v>
@@ -32086,13 +32086,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>233.8199902598774</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N15" t="n">
-        <v>218.0362195708005</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4959731489255</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P15" t="n">
         <v>190.8441275431999</v>
@@ -32101,16 +32101,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S15" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,16 +32150,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H16" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I16" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L16" t="n">
         <v>124.569106525823</v>
@@ -32177,10 +32177,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S16" t="n">
         <v>14.60186970832839</v>
@@ -32189,7 +32189,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H26" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I26" t="n">
         <v>72.01212845185798</v>
@@ -32952,22 +32952,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L26" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M26" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N26" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O26" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P26" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R26" t="n">
         <v>117.334332763479</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H27" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I27" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J27" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K27" t="n">
         <v>161.3833488850657</v>
@@ -33049,16 +33049,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R27" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S27" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T27" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,16 +33098,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H28" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I28" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K28" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L28" t="n">
         <v>124.569106525823</v>
@@ -33125,10 +33125,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R28" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S28" t="n">
         <v>14.60186970832839</v>
@@ -33137,7 +33137,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I35" t="n">
         <v>72.01212845185798</v>
@@ -33663,22 +33663,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M35" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O35" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R35" t="n">
         <v>117.334332763479</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H36" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I36" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K36" t="n">
         <v>161.3833488850657</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>252.8244861242317</v>
+        <v>238.5544696330253</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33760,16 +33760,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S36" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H37" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I37" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L37" t="n">
         <v>124.569106525823</v>
@@ -33836,10 +33836,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S37" t="n">
         <v>14.60186970832839</v>
@@ -33848,7 +33848,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I38" t="n">
         <v>72.01212845185798</v>
@@ -33900,22 +33900,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M38" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O38" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R38" t="n">
         <v>117.334332763479</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H39" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I39" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K39" t="n">
         <v>161.3833488850657</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>241.8443705903051</v>
+        <v>238.5544696330253</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -33997,16 +33997,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S39" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H40" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I40" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L40" t="n">
         <v>124.569106525823</v>
@@ -34073,10 +34073,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S40" t="n">
         <v>14.60186970832839</v>
@@ -34085,7 +34085,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I41" t="n">
         <v>72.01212845185798</v>
@@ -34137,22 +34137,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M41" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O41" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R41" t="n">
         <v>117.334332763479</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H42" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I42" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K42" t="n">
         <v>161.3833488850657</v>
@@ -34219,7 +34219,7 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>238.2195668791772</v>
+        <v>238.2195668791771</v>
       </c>
       <c r="N42" t="n">
         <v>222.4357961901003</v>
@@ -34234,16 +34234,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S42" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I43" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L43" t="n">
         <v>124.569106525823</v>
@@ -34310,10 +34310,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S43" t="n">
         <v>14.60186970832839</v>
@@ -34322,7 +34322,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H45" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I45" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34456,7 +34456,7 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>238.2195668791772</v>
+        <v>238.2195668791771</v>
       </c>
       <c r="N45" t="n">
         <v>222.4357961901003</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M11" t="n">
-        <v>14.96885011499901</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2686072756679446</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O11" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448263</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>14.36404809015056</v>
       </c>
       <c r="M12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O12" t="n">
-        <v>14.96885011499901</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>13.69345016832927</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.94896564892557</v>
+        <v>13.9620574439972</v>
       </c>
       <c r="M14" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N14" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O14" t="n">
-        <v>10.80508177792064</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P14" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>24.90052259240333</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="M15" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N15" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O15" t="n">
-        <v>25.94896564892557</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>29.42947135387474</v>
+      </c>
+      <c r="M17" t="n">
         <v>45.35754004913036</v>
-      </c>
-      <c r="M17" t="n">
-        <v>29.42947135387474</v>
       </c>
       <c r="N17" t="n">
         <v>45.35754004913036</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>43.52491216835742</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M21" t="n">
         <v>45.35754004913036</v>
@@ -36214,7 +36214,7 @@
         <v>45.35754004913036</v>
       </c>
       <c r="O21" t="n">
-        <v>45.35754004913036</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>75.70608231735569</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N23" t="n">
-        <v>75.70608231735569</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O23" t="n">
-        <v>75.70608231735569</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>53.06828533996458</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N24" t="n">
-        <v>67.84351733964857</v>
+        <v>72.64725070857364</v>
       </c>
       <c r="O24" t="n">
-        <v>29.23886660620531</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P24" t="n">
-        <v>75.70608231735569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>58.55180989409087</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N26" t="n">
-        <v>75.70608231735588</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O26" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P26" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833615</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M27" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N27" t="n">
-        <v>67.84351733964857</v>
+        <v>72.64725070857364</v>
       </c>
       <c r="O27" t="n">
-        <v>51.95860967794465</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>75.70608231735575</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N29" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O29" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P29" t="n">
         <v>14.09544081448269</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015059</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="M30" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N30" t="n">
-        <v>67.84351733964857</v>
+        <v>72.64725070857364</v>
       </c>
       <c r="O30" t="n">
-        <v>67.94310385601936</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P30" t="n">
-        <v>75.70608231735571</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,13 +37077,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="N32" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O32" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P32" t="n">
         <v>14.09544081448269</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>75.70608231735571</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M33" t="n">
-        <v>75.70608231735571</v>
+        <v>58.28320261842305</v>
       </c>
       <c r="N33" t="n">
-        <v>72.64725070857367</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="O33" t="n">
-        <v>75.70608231735571</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>75.70608231735568</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>58.55180989409092</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="M35" t="n">
-        <v>60.73723220235669</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="N35" t="n">
-        <v>60.73723220235669</v>
+        <v>30.49431163561117</v>
       </c>
       <c r="O35" t="n">
-        <v>46.37318411220618</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P35" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>60.73723220235669</v>
+        <v>44.58975245009377</v>
       </c>
       <c r="M36" t="n">
-        <v>58.28320261842308</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="N36" t="n">
-        <v>60.73723220235669</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="O36" t="n">
-        <v>60.73723220235669</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>49.75711666843013</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="M38" t="n">
-        <v>49.75711666843013</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="N38" t="n">
-        <v>49.75711666843013</v>
+        <v>30.49431163561117</v>
       </c>
       <c r="O38" t="n">
-        <v>33.65128730168765</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P38" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>14.36404809015059</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="M39" t="n">
-        <v>45.35754004913036</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="N39" t="n">
-        <v>49.75711666843013</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="O39" t="n">
-        <v>29.23886660620531</v>
+        <v>44.58975245009378</v>
       </c>
       <c r="P39" t="n">
-        <v>29.74930069920813</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="M41" t="n">
-        <v>30.34854226822534</v>
+        <v>15.02689772573359</v>
       </c>
       <c r="N41" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O41" t="n">
-        <v>15.02689772573354</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="P41" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14.36404809015059</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M42" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N42" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O42" t="n">
-        <v>29.23886660620531</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P42" t="n">
-        <v>15.86796611208567</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>30.34854226822534</v>
+        <v>15.02689772573359</v>
       </c>
       <c r="M44" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N44" t="n">
-        <v>15.02689772573354</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O44" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="L45" t="n">
-        <v>14.36404809015059</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M45" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="N45" t="n">
-        <v>30.34854226822534</v>
+        <v>30.34854226822532</v>
       </c>
       <c r="O45" t="n">
-        <v>29.23886660620531</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P45" t="n">
-        <v>15.86796611208567</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
